--- a/chain_data/工程机械/工程机械产业图谱20231018V1.3.xlsx
+++ b/chain_data/工程机械/工程机械产业图谱20231018V1.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8200"/>
+    <workbookView windowWidth="18600" windowHeight="8200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="534">
   <si>
     <r>
       <rPr>
@@ -2890,15 +2890,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0290201010401</t>
-    </r>
+    <t>0290201010304</t>
   </si>
   <si>
     <r>
@@ -5858,24 +5850,6 @@
       </rPr>
       <t>公路隧道工程</t>
     </r>
-  </si>
-  <si>
-    <t>0290303020902</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>隧道工程</t>
-  </si>
-  <si>
-    <t>城市地铁隧道工程</t>
-  </si>
-  <si>
-    <t>0290303020903</t>
-  </si>
-  <si>
-    <t>公路隧道工程</t>
   </si>
 </sst>
 </file>
@@ -6531,7 +6505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6556,10 +6530,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6871,10 +6841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN256"/>
+  <dimension ref="A1:AN254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8181818181818" defaultRowHeight="16.5" customHeight="1"/>
@@ -20091,46 +20061,6 @@
       <c r="AL254"/>
       <c r="AM254"/>
       <c r="AN254"/>
-    </row>
-    <row r="255" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A255" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="E255" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
-    </row>
-    <row r="256" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A256" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="E256" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
-      <c r="H256" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
